--- a/Part2/Tables/numerical_feature_pair.xlsx
+++ b/Part2/Tables/numerical_feature_pair.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>feature1</t>
   </si>
@@ -28,46 +28,25 @@
     <t>ranking</t>
   </si>
   <si>
-    <t>Husband_sex_Male</t>
-  </si>
-  <si>
-    <t>White_native-country_United-States</t>
-  </si>
-  <si>
-    <t>native-country_United-States</t>
-  </si>
-  <si>
-    <t>sex_Male</t>
-  </si>
-  <si>
-    <t>Own-child_sex_Male</t>
-  </si>
-  <si>
-    <t>Not-in-family_sex_Male</t>
-  </si>
-  <si>
-    <t>income_&lt;=50K</t>
-  </si>
-  <si>
-    <t>Never-married_sex_Male</t>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Not-in-family_Never-married_sex_Male</t>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
-    <t>capital-gain_&gt;4109</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>Married-civ-spouse_sex_Male</t>
-  </si>
-  <si>
-    <t>Black_native-country_United-States</t>
-  </si>
-  <si>
-    <t>Divorced_sex_Male</t>
+    <t>Husband_Married-civ-spouse_sex_Male</t>
+  </si>
+  <si>
+    <t>Prof-specialty_sex_Male</t>
+  </si>
+  <si>
+    <t>Exec-managerial_sex_Male</t>
+  </si>
+  <si>
+    <t>Not-in-family_Divorced_sex_Male</t>
   </si>
 </sst>
 </file>
@@ -425,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,35 +426,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>0.9908017116932749</v>
+        <v>0.3520823480093489</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>-0.6264344705804819</v>
+        <v>-0.3143042869735215</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -484,259 +463,49 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.6117375195341261</v>
+        <v>-0.2367675778737396</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5">
-        <v>0.5850372232263125</v>
+        <v>0.2105706978673938</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>0.5803262843738157</v>
+        <v>0.2050027835074716</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0.5717442088353123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>0.4396978450349592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>-0.4009815709834703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>-0.3988313613271801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>-0.3919349470984566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>0.3898539706289919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>-0.3887789401015783</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>-0.3598031433536748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>-0.3568499528415783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>-0.3360678806757156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>0.3311046761063043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>-0.3278867953810802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>-0.3274175682693029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>0.3167954154483982</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>0.312592409078296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>-0.3070426350725117</v>
+        <v>-0.2044434075951853</v>
       </c>
     </row>
   </sheetData>
